--- a/Excel2FlatBuffers/ExcelTable/Scene.xlsx
+++ b/Excel2FlatBuffers/ExcelTable/Scene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\UnityProject\BiuBiu\Excel2FlatBuffers\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4C2E73-8F2C-48D4-8836-A14EFC1FBB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A5E818-C40C-47E2-A89C-860EB438A7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19290" yWindow="5010" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18930" yWindow="4710" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scene" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>skip</t>
   </si>
@@ -55,23 +55,64 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>家园场景</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lobby/MainLobby</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomeLand/HomeLand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>战斗场景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneLobby</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneBattle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻路网格配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tring</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apConfig</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleMapConfig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +130,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -144,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -169,6 +218,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -478,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -496,12 +554,12 @@
     <col min="9" max="9" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -514,8 +572,11 @@
       <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E2" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -526,8 +587,11 @@
       <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E3" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>6</v>
@@ -535,8 +599,11 @@
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
@@ -547,7 +614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>2</v>
       </c>
@@ -557,35 +624,38 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C16" s="9"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
@@ -603,6 +673,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel2FlatBuffers/ExcelTable/Scene.xlsx
+++ b/Excel2FlatBuffers/ExcelTable/Scene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\UnityProject\BiuBiu\Excel2FlatBuffers\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD23527-205D-4075-BCC9-055A89C3CCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AA9F7F-5C02-4895-8C5B-0216D38B028A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="5385" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22830" yWindow="5460" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scene" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>skip</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -134,6 +134,14 @@
   </si>
   <si>
     <t>MainLobby</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BgmId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DV206"/>
+  <dimension ref="A1:DW206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -557,18 +565,18 @@
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="22.625" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="38.25" customWidth="1"/>
+    <col min="5" max="6" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" x14ac:dyDescent="0.15">
-      <c r="F1" t="s">
+    <row r="1" spans="1:127" x14ac:dyDescent="0.15">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:126" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:127" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -584,10 +592,12 @@
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -626,8 +636,9 @@
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
     </row>
-    <row r="3" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:127" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -643,7 +654,9 @@
       <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -683,8 +696,9 @@
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
     </row>
-    <row r="4" spans="1:126" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:127" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -697,8 +711,11 @@
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>1</v>
@@ -710,10 +727,12 @@
       <c r="E5" s="4">
         <v>1001</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -833,8 +852,9 @@
       <c r="DT5" s="4"/>
       <c r="DU5" s="4"/>
       <c r="DV5" s="4"/>
+      <c r="DW5" s="4"/>
     </row>
-    <row r="6" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -848,10 +868,12 @@
       <c r="E6" s="4">
         <v>1002</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -971,8 +993,9 @@
       <c r="DT6" s="4"/>
       <c r="DU6" s="4"/>
       <c r="DV6" s="4"/>
+      <c r="DW6" s="4"/>
     </row>
-    <row r="7" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1099,8 +1122,9 @@
       <c r="DT7" s="4"/>
       <c r="DU7" s="4"/>
       <c r="DV7" s="4"/>
+      <c r="DW7" s="4"/>
     </row>
-    <row r="8" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1227,8 +1251,9 @@
       <c r="DT8" s="4"/>
       <c r="DU8" s="4"/>
       <c r="DV8" s="4"/>
+      <c r="DW8" s="4"/>
     </row>
-    <row r="9" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1355,8 +1380,9 @@
       <c r="DT9" s="4"/>
       <c r="DU9" s="4"/>
       <c r="DV9" s="4"/>
+      <c r="DW9" s="4"/>
     </row>
-    <row r="10" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1483,8 +1509,9 @@
       <c r="DT10" s="4"/>
       <c r="DU10" s="4"/>
       <c r="DV10" s="4"/>
+      <c r="DW10" s="4"/>
     </row>
-    <row r="11" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1611,8 +1638,9 @@
       <c r="DT11" s="4"/>
       <c r="DU11" s="4"/>
       <c r="DV11" s="4"/>
+      <c r="DW11" s="4"/>
     </row>
-    <row r="12" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1739,8 +1767,9 @@
       <c r="DT12" s="4"/>
       <c r="DU12" s="4"/>
       <c r="DV12" s="4"/>
+      <c r="DW12" s="4"/>
     </row>
-    <row r="13" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1867,8 +1896,9 @@
       <c r="DT13" s="4"/>
       <c r="DU13" s="4"/>
       <c r="DV13" s="4"/>
+      <c r="DW13" s="4"/>
     </row>
-    <row r="14" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1995,8 +2025,9 @@
       <c r="DT14" s="4"/>
       <c r="DU14" s="4"/>
       <c r="DV14" s="4"/>
+      <c r="DW14" s="4"/>
     </row>
-    <row r="15" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2123,8 +2154,9 @@
       <c r="DT15" s="4"/>
       <c r="DU15" s="4"/>
       <c r="DV15" s="4"/>
+      <c r="DW15" s="4"/>
     </row>
-    <row r="16" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2251,8 +2283,9 @@
       <c r="DT16" s="4"/>
       <c r="DU16" s="4"/>
       <c r="DV16" s="4"/>
+      <c r="DW16" s="4"/>
     </row>
-    <row r="17" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2379,8 +2412,9 @@
       <c r="DT17" s="4"/>
       <c r="DU17" s="4"/>
       <c r="DV17" s="4"/>
+      <c r="DW17" s="4"/>
     </row>
-    <row r="18" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2507,8 +2541,9 @@
       <c r="DT18" s="4"/>
       <c r="DU18" s="4"/>
       <c r="DV18" s="4"/>
+      <c r="DW18" s="4"/>
     </row>
-    <row r="19" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2635,8 +2670,9 @@
       <c r="DT19" s="4"/>
       <c r="DU19" s="4"/>
       <c r="DV19" s="4"/>
+      <c r="DW19" s="4"/>
     </row>
-    <row r="20" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2763,8 +2799,9 @@
       <c r="DT20" s="4"/>
       <c r="DU20" s="4"/>
       <c r="DV20" s="4"/>
+      <c r="DW20" s="4"/>
     </row>
-    <row r="21" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2891,8 +2928,9 @@
       <c r="DT21" s="4"/>
       <c r="DU21" s="4"/>
       <c r="DV21" s="4"/>
+      <c r="DW21" s="4"/>
     </row>
-    <row r="22" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3019,8 +3057,9 @@
       <c r="DT22" s="4"/>
       <c r="DU22" s="4"/>
       <c r="DV22" s="4"/>
+      <c r="DW22" s="4"/>
     </row>
-    <row r="23" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3147,8 +3186,9 @@
       <c r="DT23" s="4"/>
       <c r="DU23" s="4"/>
       <c r="DV23" s="4"/>
+      <c r="DW23" s="4"/>
     </row>
-    <row r="24" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -3275,8 +3315,9 @@
       <c r="DT24" s="4"/>
       <c r="DU24" s="4"/>
       <c r="DV24" s="4"/>
+      <c r="DW24" s="4"/>
     </row>
-    <row r="25" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3403,8 +3444,9 @@
       <c r="DT25" s="4"/>
       <c r="DU25" s="4"/>
       <c r="DV25" s="4"/>
+      <c r="DW25" s="4"/>
     </row>
-    <row r="26" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3531,8 +3573,9 @@
       <c r="DT26" s="4"/>
       <c r="DU26" s="4"/>
       <c r="DV26" s="4"/>
+      <c r="DW26" s="4"/>
     </row>
-    <row r="27" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3659,8 +3702,9 @@
       <c r="DT27" s="4"/>
       <c r="DU27" s="4"/>
       <c r="DV27" s="4"/>
+      <c r="DW27" s="4"/>
     </row>
-    <row r="28" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3787,8 +3831,9 @@
       <c r="DT28" s="4"/>
       <c r="DU28" s="4"/>
       <c r="DV28" s="4"/>
+      <c r="DW28" s="4"/>
     </row>
-    <row r="29" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3915,8 +3960,9 @@
       <c r="DT29" s="4"/>
       <c r="DU29" s="4"/>
       <c r="DV29" s="4"/>
+      <c r="DW29" s="4"/>
     </row>
-    <row r="30" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4043,8 +4089,9 @@
       <c r="DT30" s="4"/>
       <c r="DU30" s="4"/>
       <c r="DV30" s="4"/>
+      <c r="DW30" s="4"/>
     </row>
-    <row r="31" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -4171,8 +4218,9 @@
       <c r="DT31" s="4"/>
       <c r="DU31" s="4"/>
       <c r="DV31" s="4"/>
+      <c r="DW31" s="4"/>
     </row>
-    <row r="32" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -4299,8 +4347,9 @@
       <c r="DT32" s="4"/>
       <c r="DU32" s="4"/>
       <c r="DV32" s="4"/>
+      <c r="DW32" s="4"/>
     </row>
-    <row r="33" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -4427,8 +4476,9 @@
       <c r="DT33" s="4"/>
       <c r="DU33" s="4"/>
       <c r="DV33" s="4"/>
+      <c r="DW33" s="4"/>
     </row>
-    <row r="34" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -4555,8 +4605,9 @@
       <c r="DT34" s="4"/>
       <c r="DU34" s="4"/>
       <c r="DV34" s="4"/>
+      <c r="DW34" s="4"/>
     </row>
-    <row r="35" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -4683,8 +4734,9 @@
       <c r="DT35" s="4"/>
       <c r="DU35" s="4"/>
       <c r="DV35" s="4"/>
+      <c r="DW35" s="4"/>
     </row>
-    <row r="36" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -4811,8 +4863,9 @@
       <c r="DT36" s="4"/>
       <c r="DU36" s="4"/>
       <c r="DV36" s="4"/>
+      <c r="DW36" s="4"/>
     </row>
-    <row r="37" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -4939,8 +4992,9 @@
       <c r="DT37" s="4"/>
       <c r="DU37" s="4"/>
       <c r="DV37" s="4"/>
+      <c r="DW37" s="4"/>
     </row>
-    <row r="38" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -5067,8 +5121,9 @@
       <c r="DT38" s="4"/>
       <c r="DU38" s="4"/>
       <c r="DV38" s="4"/>
+      <c r="DW38" s="4"/>
     </row>
-    <row r="39" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -5195,8 +5250,9 @@
       <c r="DT39" s="4"/>
       <c r="DU39" s="4"/>
       <c r="DV39" s="4"/>
+      <c r="DW39" s="4"/>
     </row>
-    <row r="40" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -5323,8 +5379,9 @@
       <c r="DT40" s="4"/>
       <c r="DU40" s="4"/>
       <c r="DV40" s="4"/>
+      <c r="DW40" s="4"/>
     </row>
-    <row r="41" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -5451,8 +5508,9 @@
       <c r="DT41" s="4"/>
       <c r="DU41" s="4"/>
       <c r="DV41" s="4"/>
+      <c r="DW41" s="4"/>
     </row>
-    <row r="42" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -5579,8 +5637,9 @@
       <c r="DT42" s="4"/>
       <c r="DU42" s="4"/>
       <c r="DV42" s="4"/>
+      <c r="DW42" s="4"/>
     </row>
-    <row r="43" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -5707,8 +5766,9 @@
       <c r="DT43" s="4"/>
       <c r="DU43" s="4"/>
       <c r="DV43" s="4"/>
+      <c r="DW43" s="4"/>
     </row>
-    <row r="44" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -5835,8 +5895,9 @@
       <c r="DT44" s="4"/>
       <c r="DU44" s="4"/>
       <c r="DV44" s="4"/>
+      <c r="DW44" s="4"/>
     </row>
-    <row r="45" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -5963,8 +6024,9 @@
       <c r="DT45" s="4"/>
       <c r="DU45" s="4"/>
       <c r="DV45" s="4"/>
+      <c r="DW45" s="4"/>
     </row>
-    <row r="46" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -6091,8 +6153,9 @@
       <c r="DT46" s="4"/>
       <c r="DU46" s="4"/>
       <c r="DV46" s="4"/>
+      <c r="DW46" s="4"/>
     </row>
-    <row r="47" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -6219,8 +6282,9 @@
       <c r="DT47" s="4"/>
       <c r="DU47" s="4"/>
       <c r="DV47" s="4"/>
+      <c r="DW47" s="4"/>
     </row>
-    <row r="48" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -6347,8 +6411,9 @@
       <c r="DT48" s="4"/>
       <c r="DU48" s="4"/>
       <c r="DV48" s="4"/>
+      <c r="DW48" s="4"/>
     </row>
-    <row r="49" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -6475,8 +6540,9 @@
       <c r="DT49" s="4"/>
       <c r="DU49" s="4"/>
       <c r="DV49" s="4"/>
+      <c r="DW49" s="4"/>
     </row>
-    <row r="50" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -6603,8 +6669,9 @@
       <c r="DT50" s="4"/>
       <c r="DU50" s="4"/>
       <c r="DV50" s="4"/>
+      <c r="DW50" s="4"/>
     </row>
-    <row r="51" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -6731,8 +6798,9 @@
       <c r="DT51" s="4"/>
       <c r="DU51" s="4"/>
       <c r="DV51" s="4"/>
+      <c r="DW51" s="4"/>
     </row>
-    <row r="52" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -6859,8 +6927,9 @@
       <c r="DT52" s="4"/>
       <c r="DU52" s="4"/>
       <c r="DV52" s="4"/>
+      <c r="DW52" s="4"/>
     </row>
-    <row r="53" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -6987,8 +7056,9 @@
       <c r="DT53" s="4"/>
       <c r="DU53" s="4"/>
       <c r="DV53" s="4"/>
+      <c r="DW53" s="4"/>
     </row>
-    <row r="54" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -7115,8 +7185,9 @@
       <c r="DT54" s="4"/>
       <c r="DU54" s="4"/>
       <c r="DV54" s="4"/>
+      <c r="DW54" s="4"/>
     </row>
-    <row r="55" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -7243,8 +7314,9 @@
       <c r="DT55" s="4"/>
       <c r="DU55" s="4"/>
       <c r="DV55" s="4"/>
+      <c r="DW55" s="4"/>
     </row>
-    <row r="56" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -7371,8 +7443,9 @@
       <c r="DT56" s="4"/>
       <c r="DU56" s="4"/>
       <c r="DV56" s="4"/>
+      <c r="DW56" s="4"/>
     </row>
-    <row r="57" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -7499,8 +7572,9 @@
       <c r="DT57" s="4"/>
       <c r="DU57" s="4"/>
       <c r="DV57" s="4"/>
+      <c r="DW57" s="4"/>
     </row>
-    <row r="58" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -7627,8 +7701,9 @@
       <c r="DT58" s="4"/>
       <c r="DU58" s="4"/>
       <c r="DV58" s="4"/>
+      <c r="DW58" s="4"/>
     </row>
-    <row r="59" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -7755,8 +7830,9 @@
       <c r="DT59" s="4"/>
       <c r="DU59" s="4"/>
       <c r="DV59" s="4"/>
+      <c r="DW59" s="4"/>
     </row>
-    <row r="60" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -7883,8 +7959,9 @@
       <c r="DT60" s="4"/>
       <c r="DU60" s="4"/>
       <c r="DV60" s="4"/>
+      <c r="DW60" s="4"/>
     </row>
-    <row r="61" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -8011,8 +8088,9 @@
       <c r="DT61" s="4"/>
       <c r="DU61" s="4"/>
       <c r="DV61" s="4"/>
+      <c r="DW61" s="4"/>
     </row>
-    <row r="62" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -8139,8 +8217,9 @@
       <c r="DT62" s="4"/>
       <c r="DU62" s="4"/>
       <c r="DV62" s="4"/>
+      <c r="DW62" s="4"/>
     </row>
-    <row r="63" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -8267,8 +8346,9 @@
       <c r="DT63" s="4"/>
       <c r="DU63" s="4"/>
       <c r="DV63" s="4"/>
+      <c r="DW63" s="4"/>
     </row>
-    <row r="64" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -8395,8 +8475,9 @@
       <c r="DT64" s="4"/>
       <c r="DU64" s="4"/>
       <c r="DV64" s="4"/>
+      <c r="DW64" s="4"/>
     </row>
-    <row r="65" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -8523,8 +8604,9 @@
       <c r="DT65" s="4"/>
       <c r="DU65" s="4"/>
       <c r="DV65" s="4"/>
+      <c r="DW65" s="4"/>
     </row>
-    <row r="66" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -8651,8 +8733,9 @@
       <c r="DT66" s="4"/>
       <c r="DU66" s="4"/>
       <c r="DV66" s="4"/>
+      <c r="DW66" s="4"/>
     </row>
-    <row r="67" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -8779,8 +8862,9 @@
       <c r="DT67" s="4"/>
       <c r="DU67" s="4"/>
       <c r="DV67" s="4"/>
+      <c r="DW67" s="4"/>
     </row>
-    <row r="68" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -8907,8 +8991,9 @@
       <c r="DT68" s="4"/>
       <c r="DU68" s="4"/>
       <c r="DV68" s="4"/>
+      <c r="DW68" s="4"/>
     </row>
-    <row r="69" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -9035,8 +9120,9 @@
       <c r="DT69" s="4"/>
       <c r="DU69" s="4"/>
       <c r="DV69" s="4"/>
+      <c r="DW69" s="4"/>
     </row>
-    <row r="70" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -9163,8 +9249,9 @@
       <c r="DT70" s="4"/>
       <c r="DU70" s="4"/>
       <c r="DV70" s="4"/>
+      <c r="DW70" s="4"/>
     </row>
-    <row r="71" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -9291,8 +9378,9 @@
       <c r="DT71" s="4"/>
       <c r="DU71" s="4"/>
       <c r="DV71" s="4"/>
+      <c r="DW71" s="4"/>
     </row>
-    <row r="72" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -9419,8 +9507,9 @@
       <c r="DT72" s="4"/>
       <c r="DU72" s="4"/>
       <c r="DV72" s="4"/>
+      <c r="DW72" s="4"/>
     </row>
-    <row r="73" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -9547,8 +9636,9 @@
       <c r="DT73" s="4"/>
       <c r="DU73" s="4"/>
       <c r="DV73" s="4"/>
+      <c r="DW73" s="4"/>
     </row>
-    <row r="74" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -9675,8 +9765,9 @@
       <c r="DT74" s="4"/>
       <c r="DU74" s="4"/>
       <c r="DV74" s="4"/>
+      <c r="DW74" s="4"/>
     </row>
-    <row r="75" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -9803,8 +9894,9 @@
       <c r="DT75" s="4"/>
       <c r="DU75" s="4"/>
       <c r="DV75" s="4"/>
+      <c r="DW75" s="4"/>
     </row>
-    <row r="76" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -9931,8 +10023,9 @@
       <c r="DT76" s="4"/>
       <c r="DU76" s="4"/>
       <c r="DV76" s="4"/>
+      <c r="DW76" s="4"/>
     </row>
-    <row r="77" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -10059,8 +10152,9 @@
       <c r="DT77" s="4"/>
       <c r="DU77" s="4"/>
       <c r="DV77" s="4"/>
+      <c r="DW77" s="4"/>
     </row>
-    <row r="78" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -10187,8 +10281,9 @@
       <c r="DT78" s="4"/>
       <c r="DU78" s="4"/>
       <c r="DV78" s="4"/>
+      <c r="DW78" s="4"/>
     </row>
-    <row r="79" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -10315,8 +10410,9 @@
       <c r="DT79" s="4"/>
       <c r="DU79" s="4"/>
       <c r="DV79" s="4"/>
+      <c r="DW79" s="4"/>
     </row>
-    <row r="80" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -10443,8 +10539,9 @@
       <c r="DT80" s="4"/>
       <c r="DU80" s="4"/>
       <c r="DV80" s="4"/>
+      <c r="DW80" s="4"/>
     </row>
-    <row r="81" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -10571,8 +10668,9 @@
       <c r="DT81" s="4"/>
       <c r="DU81" s="4"/>
       <c r="DV81" s="4"/>
+      <c r="DW81" s="4"/>
     </row>
-    <row r="82" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -10699,8 +10797,9 @@
       <c r="DT82" s="4"/>
       <c r="DU82" s="4"/>
       <c r="DV82" s="4"/>
+      <c r="DW82" s="4"/>
     </row>
-    <row r="83" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -10827,8 +10926,9 @@
       <c r="DT83" s="4"/>
       <c r="DU83" s="4"/>
       <c r="DV83" s="4"/>
+      <c r="DW83" s="4"/>
     </row>
-    <row r="84" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -10955,8 +11055,9 @@
       <c r="DT84" s="4"/>
       <c r="DU84" s="4"/>
       <c r="DV84" s="4"/>
+      <c r="DW84" s="4"/>
     </row>
-    <row r="85" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -11083,8 +11184,9 @@
       <c r="DT85" s="4"/>
       <c r="DU85" s="4"/>
       <c r="DV85" s="4"/>
+      <c r="DW85" s="4"/>
     </row>
-    <row r="86" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -11211,8 +11313,9 @@
       <c r="DT86" s="4"/>
       <c r="DU86" s="4"/>
       <c r="DV86" s="4"/>
+      <c r="DW86" s="4"/>
     </row>
-    <row r="87" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -11339,8 +11442,9 @@
       <c r="DT87" s="4"/>
       <c r="DU87" s="4"/>
       <c r="DV87" s="4"/>
+      <c r="DW87" s="4"/>
     </row>
-    <row r="88" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -11467,8 +11571,9 @@
       <c r="DT88" s="4"/>
       <c r="DU88" s="4"/>
       <c r="DV88" s="4"/>
+      <c r="DW88" s="4"/>
     </row>
-    <row r="89" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -11595,8 +11700,9 @@
       <c r="DT89" s="4"/>
       <c r="DU89" s="4"/>
       <c r="DV89" s="4"/>
+      <c r="DW89" s="4"/>
     </row>
-    <row r="90" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -11723,8 +11829,9 @@
       <c r="DT90" s="4"/>
       <c r="DU90" s="4"/>
       <c r="DV90" s="4"/>
+      <c r="DW90" s="4"/>
     </row>
-    <row r="91" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -11851,8 +11958,9 @@
       <c r="DT91" s="4"/>
       <c r="DU91" s="4"/>
       <c r="DV91" s="4"/>
+      <c r="DW91" s="4"/>
     </row>
-    <row r="92" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -11979,8 +12087,9 @@
       <c r="DT92" s="4"/>
       <c r="DU92" s="4"/>
       <c r="DV92" s="4"/>
+      <c r="DW92" s="4"/>
     </row>
-    <row r="93" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -12107,8 +12216,9 @@
       <c r="DT93" s="4"/>
       <c r="DU93" s="4"/>
       <c r="DV93" s="4"/>
+      <c r="DW93" s="4"/>
     </row>
-    <row r="94" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -12235,8 +12345,9 @@
       <c r="DT94" s="4"/>
       <c r="DU94" s="4"/>
       <c r="DV94" s="4"/>
+      <c r="DW94" s="4"/>
     </row>
-    <row r="95" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -12363,8 +12474,9 @@
       <c r="DT95" s="4"/>
       <c r="DU95" s="4"/>
       <c r="DV95" s="4"/>
+      <c r="DW95" s="4"/>
     </row>
-    <row r="96" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -12491,8 +12603,9 @@
       <c r="DT96" s="4"/>
       <c r="DU96" s="4"/>
       <c r="DV96" s="4"/>
+      <c r="DW96" s="4"/>
     </row>
-    <row r="97" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -12619,8 +12732,9 @@
       <c r="DT97" s="4"/>
       <c r="DU97" s="4"/>
       <c r="DV97" s="4"/>
+      <c r="DW97" s="4"/>
     </row>
-    <row r="98" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -12747,8 +12861,9 @@
       <c r="DT98" s="4"/>
       <c r="DU98" s="4"/>
       <c r="DV98" s="4"/>
+      <c r="DW98" s="4"/>
     </row>
-    <row r="99" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -12875,8 +12990,9 @@
       <c r="DT99" s="4"/>
       <c r="DU99" s="4"/>
       <c r="DV99" s="4"/>
+      <c r="DW99" s="4"/>
     </row>
-    <row r="100" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -13003,8 +13119,9 @@
       <c r="DT100" s="4"/>
       <c r="DU100" s="4"/>
       <c r="DV100" s="4"/>
+      <c r="DW100" s="4"/>
     </row>
-    <row r="101" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -13131,8 +13248,9 @@
       <c r="DT101" s="4"/>
       <c r="DU101" s="4"/>
       <c r="DV101" s="4"/>
+      <c r="DW101" s="4"/>
     </row>
-    <row r="102" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -13259,8 +13377,9 @@
       <c r="DT102" s="4"/>
       <c r="DU102" s="4"/>
       <c r="DV102" s="4"/>
+      <c r="DW102" s="4"/>
     </row>
-    <row r="103" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -13387,8 +13506,9 @@
       <c r="DT103" s="4"/>
       <c r="DU103" s="4"/>
       <c r="DV103" s="4"/>
+      <c r="DW103" s="4"/>
     </row>
-    <row r="104" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -13515,8 +13635,9 @@
       <c r="DT104" s="4"/>
       <c r="DU104" s="4"/>
       <c r="DV104" s="4"/>
+      <c r="DW104" s="4"/>
     </row>
-    <row r="105" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -13643,8 +13764,9 @@
       <c r="DT105" s="4"/>
       <c r="DU105" s="4"/>
       <c r="DV105" s="4"/>
+      <c r="DW105" s="4"/>
     </row>
-    <row r="106" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -13771,8 +13893,9 @@
       <c r="DT106" s="4"/>
       <c r="DU106" s="4"/>
       <c r="DV106" s="4"/>
+      <c r="DW106" s="4"/>
     </row>
-    <row r="107" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -13899,8 +14022,9 @@
       <c r="DT107" s="4"/>
       <c r="DU107" s="4"/>
       <c r="DV107" s="4"/>
+      <c r="DW107" s="4"/>
     </row>
-    <row r="108" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -14027,8 +14151,9 @@
       <c r="DT108" s="4"/>
       <c r="DU108" s="4"/>
       <c r="DV108" s="4"/>
+      <c r="DW108" s="4"/>
     </row>
-    <row r="109" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -14155,8 +14280,9 @@
       <c r="DT109" s="4"/>
       <c r="DU109" s="4"/>
       <c r="DV109" s="4"/>
+      <c r="DW109" s="4"/>
     </row>
-    <row r="110" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -14283,8 +14409,9 @@
       <c r="DT110" s="4"/>
       <c r="DU110" s="4"/>
       <c r="DV110" s="4"/>
+      <c r="DW110" s="4"/>
     </row>
-    <row r="111" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -14411,8 +14538,9 @@
       <c r="DT111" s="4"/>
       <c r="DU111" s="4"/>
       <c r="DV111" s="4"/>
+      <c r="DW111" s="4"/>
     </row>
-    <row r="112" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -14539,8 +14667,9 @@
       <c r="DT112" s="4"/>
       <c r="DU112" s="4"/>
       <c r="DV112" s="4"/>
+      <c r="DW112" s="4"/>
     </row>
-    <row r="113" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -14667,8 +14796,9 @@
       <c r="DT113" s="4"/>
       <c r="DU113" s="4"/>
       <c r="DV113" s="4"/>
+      <c r="DW113" s="4"/>
     </row>
-    <row r="114" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -14795,8 +14925,9 @@
       <c r="DT114" s="4"/>
       <c r="DU114" s="4"/>
       <c r="DV114" s="4"/>
+      <c r="DW114" s="4"/>
     </row>
-    <row r="115" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -14923,8 +15054,9 @@
       <c r="DT115" s="4"/>
       <c r="DU115" s="4"/>
       <c r="DV115" s="4"/>
+      <c r="DW115" s="4"/>
     </row>
-    <row r="116" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -15051,8 +15183,9 @@
       <c r="DT116" s="4"/>
       <c r="DU116" s="4"/>
       <c r="DV116" s="4"/>
+      <c r="DW116" s="4"/>
     </row>
-    <row r="117" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -15179,8 +15312,9 @@
       <c r="DT117" s="4"/>
       <c r="DU117" s="4"/>
       <c r="DV117" s="4"/>
+      <c r="DW117" s="4"/>
     </row>
-    <row r="118" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -15307,8 +15441,9 @@
       <c r="DT118" s="4"/>
       <c r="DU118" s="4"/>
       <c r="DV118" s="4"/>
+      <c r="DW118" s="4"/>
     </row>
-    <row r="119" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -15435,8 +15570,9 @@
       <c r="DT119" s="4"/>
       <c r="DU119" s="4"/>
       <c r="DV119" s="4"/>
+      <c r="DW119" s="4"/>
     </row>
-    <row r="120" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -15563,8 +15699,9 @@
       <c r="DT120" s="4"/>
       <c r="DU120" s="4"/>
       <c r="DV120" s="4"/>
+      <c r="DW120" s="4"/>
     </row>
-    <row r="121" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -15691,8 +15828,9 @@
       <c r="DT121" s="4"/>
       <c r="DU121" s="4"/>
       <c r="DV121" s="4"/>
+      <c r="DW121" s="4"/>
     </row>
-    <row r="122" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -15819,8 +15957,9 @@
       <c r="DT122" s="4"/>
       <c r="DU122" s="4"/>
       <c r="DV122" s="4"/>
+      <c r="DW122" s="4"/>
     </row>
-    <row r="123" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -15947,8 +16086,9 @@
       <c r="DT123" s="4"/>
       <c r="DU123" s="4"/>
       <c r="DV123" s="4"/>
+      <c r="DW123" s="4"/>
     </row>
-    <row r="124" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -16075,8 +16215,9 @@
       <c r="DT124" s="4"/>
       <c r="DU124" s="4"/>
       <c r="DV124" s="4"/>
+      <c r="DW124" s="4"/>
     </row>
-    <row r="125" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -16203,8 +16344,9 @@
       <c r="DT125" s="4"/>
       <c r="DU125" s="4"/>
       <c r="DV125" s="4"/>
+      <c r="DW125" s="4"/>
     </row>
-    <row r="126" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -16331,8 +16473,9 @@
       <c r="DT126" s="4"/>
       <c r="DU126" s="4"/>
       <c r="DV126" s="4"/>
+      <c r="DW126" s="4"/>
     </row>
-    <row r="127" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -16459,8 +16602,9 @@
       <c r="DT127" s="4"/>
       <c r="DU127" s="4"/>
       <c r="DV127" s="4"/>
+      <c r="DW127" s="4"/>
     </row>
-    <row r="128" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -16587,8 +16731,9 @@
       <c r="DT128" s="4"/>
       <c r="DU128" s="4"/>
       <c r="DV128" s="4"/>
+      <c r="DW128" s="4"/>
     </row>
-    <row r="129" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -16715,8 +16860,9 @@
       <c r="DT129" s="4"/>
       <c r="DU129" s="4"/>
       <c r="DV129" s="4"/>
+      <c r="DW129" s="4"/>
     </row>
-    <row r="130" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -16843,8 +16989,9 @@
       <c r="DT130" s="4"/>
       <c r="DU130" s="4"/>
       <c r="DV130" s="4"/>
+      <c r="DW130" s="4"/>
     </row>
-    <row r="131" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -16971,8 +17118,9 @@
       <c r="DT131" s="4"/>
       <c r="DU131" s="4"/>
       <c r="DV131" s="4"/>
+      <c r="DW131" s="4"/>
     </row>
-    <row r="132" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -17099,8 +17247,9 @@
       <c r="DT132" s="4"/>
       <c r="DU132" s="4"/>
       <c r="DV132" s="4"/>
+      <c r="DW132" s="4"/>
     </row>
-    <row r="133" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -17227,8 +17376,9 @@
       <c r="DT133" s="4"/>
       <c r="DU133" s="4"/>
       <c r="DV133" s="4"/>
+      <c r="DW133" s="4"/>
     </row>
-    <row r="134" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -17355,8 +17505,9 @@
       <c r="DT134" s="4"/>
       <c r="DU134" s="4"/>
       <c r="DV134" s="4"/>
+      <c r="DW134" s="4"/>
     </row>
-    <row r="135" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -17483,8 +17634,9 @@
       <c r="DT135" s="4"/>
       <c r="DU135" s="4"/>
       <c r="DV135" s="4"/>
+      <c r="DW135" s="4"/>
     </row>
-    <row r="136" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -17611,8 +17763,9 @@
       <c r="DT136" s="4"/>
       <c r="DU136" s="4"/>
       <c r="DV136" s="4"/>
+      <c r="DW136" s="4"/>
     </row>
-    <row r="137" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -17739,8 +17892,9 @@
       <c r="DT137" s="4"/>
       <c r="DU137" s="4"/>
       <c r="DV137" s="4"/>
+      <c r="DW137" s="4"/>
     </row>
-    <row r="138" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -17867,8 +18021,9 @@
       <c r="DT138" s="4"/>
       <c r="DU138" s="4"/>
       <c r="DV138" s="4"/>
+      <c r="DW138" s="4"/>
     </row>
-    <row r="139" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -17995,8 +18150,9 @@
       <c r="DT139" s="4"/>
       <c r="DU139" s="4"/>
       <c r="DV139" s="4"/>
+      <c r="DW139" s="4"/>
     </row>
-    <row r="140" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -18123,8 +18279,9 @@
       <c r="DT140" s="4"/>
       <c r="DU140" s="4"/>
       <c r="DV140" s="4"/>
+      <c r="DW140" s="4"/>
     </row>
-    <row r="141" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -18251,8 +18408,9 @@
       <c r="DT141" s="4"/>
       <c r="DU141" s="4"/>
       <c r="DV141" s="4"/>
+      <c r="DW141" s="4"/>
     </row>
-    <row r="142" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -18379,8 +18537,9 @@
       <c r="DT142" s="4"/>
       <c r="DU142" s="4"/>
       <c r="DV142" s="4"/>
+      <c r="DW142" s="4"/>
     </row>
-    <row r="143" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -18507,8 +18666,9 @@
       <c r="DT143" s="4"/>
       <c r="DU143" s="4"/>
       <c r="DV143" s="4"/>
+      <c r="DW143" s="4"/>
     </row>
-    <row r="144" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -18635,8 +18795,9 @@
       <c r="DT144" s="4"/>
       <c r="DU144" s="4"/>
       <c r="DV144" s="4"/>
+      <c r="DW144" s="4"/>
     </row>
-    <row r="145" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -18763,8 +18924,9 @@
       <c r="DT145" s="4"/>
       <c r="DU145" s="4"/>
       <c r="DV145" s="4"/>
+      <c r="DW145" s="4"/>
     </row>
-    <row r="146" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -18891,8 +19053,9 @@
       <c r="DT146" s="4"/>
       <c r="DU146" s="4"/>
       <c r="DV146" s="4"/>
+      <c r="DW146" s="4"/>
     </row>
-    <row r="147" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -19019,8 +19182,9 @@
       <c r="DT147" s="4"/>
       <c r="DU147" s="4"/>
       <c r="DV147" s="4"/>
+      <c r="DW147" s="4"/>
     </row>
-    <row r="148" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -19147,8 +19311,9 @@
       <c r="DT148" s="4"/>
       <c r="DU148" s="4"/>
       <c r="DV148" s="4"/>
+      <c r="DW148" s="4"/>
     </row>
-    <row r="149" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -19275,8 +19440,9 @@
       <c r="DT149" s="4"/>
       <c r="DU149" s="4"/>
       <c r="DV149" s="4"/>
+      <c r="DW149" s="4"/>
     </row>
-    <row r="150" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -19403,8 +19569,9 @@
       <c r="DT150" s="4"/>
       <c r="DU150" s="4"/>
       <c r="DV150" s="4"/>
+      <c r="DW150" s="4"/>
     </row>
-    <row r="151" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -19531,8 +19698,9 @@
       <c r="DT151" s="4"/>
       <c r="DU151" s="4"/>
       <c r="DV151" s="4"/>
+      <c r="DW151" s="4"/>
     </row>
-    <row r="152" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -19659,8 +19827,9 @@
       <c r="DT152" s="4"/>
       <c r="DU152" s="4"/>
       <c r="DV152" s="4"/>
+      <c r="DW152" s="4"/>
     </row>
-    <row r="153" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -19787,8 +19956,9 @@
       <c r="DT153" s="4"/>
       <c r="DU153" s="4"/>
       <c r="DV153" s="4"/>
+      <c r="DW153" s="4"/>
     </row>
-    <row r="154" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -19915,8 +20085,9 @@
       <c r="DT154" s="4"/>
       <c r="DU154" s="4"/>
       <c r="DV154" s="4"/>
+      <c r="DW154" s="4"/>
     </row>
-    <row r="155" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -20043,8 +20214,9 @@
       <c r="DT155" s="4"/>
       <c r="DU155" s="4"/>
       <c r="DV155" s="4"/>
+      <c r="DW155" s="4"/>
     </row>
-    <row r="156" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -20171,8 +20343,9 @@
       <c r="DT156" s="4"/>
       <c r="DU156" s="4"/>
       <c r="DV156" s="4"/>
+      <c r="DW156" s="4"/>
     </row>
-    <row r="157" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -20299,8 +20472,9 @@
       <c r="DT157" s="4"/>
       <c r="DU157" s="4"/>
       <c r="DV157" s="4"/>
+      <c r="DW157" s="4"/>
     </row>
-    <row r="158" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -20427,8 +20601,9 @@
       <c r="DT158" s="4"/>
       <c r="DU158" s="4"/>
       <c r="DV158" s="4"/>
+      <c r="DW158" s="4"/>
     </row>
-    <row r="159" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -20555,8 +20730,9 @@
       <c r="DT159" s="4"/>
       <c r="DU159" s="4"/>
       <c r="DV159" s="4"/>
+      <c r="DW159" s="4"/>
     </row>
-    <row r="160" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -20683,8 +20859,9 @@
       <c r="DT160" s="4"/>
       <c r="DU160" s="4"/>
       <c r="DV160" s="4"/>
+      <c r="DW160" s="4"/>
     </row>
-    <row r="161" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -20811,8 +20988,9 @@
       <c r="DT161" s="4"/>
       <c r="DU161" s="4"/>
       <c r="DV161" s="4"/>
+      <c r="DW161" s="4"/>
     </row>
-    <row r="162" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -20939,8 +21117,9 @@
       <c r="DT162" s="4"/>
       <c r="DU162" s="4"/>
       <c r="DV162" s="4"/>
+      <c r="DW162" s="4"/>
     </row>
-    <row r="163" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -21067,8 +21246,9 @@
       <c r="DT163" s="4"/>
       <c r="DU163" s="4"/>
       <c r="DV163" s="4"/>
+      <c r="DW163" s="4"/>
     </row>
-    <row r="164" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -21195,8 +21375,9 @@
       <c r="DT164" s="4"/>
       <c r="DU164" s="4"/>
       <c r="DV164" s="4"/>
+      <c r="DW164" s="4"/>
     </row>
-    <row r="165" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -21323,8 +21504,9 @@
       <c r="DT165" s="4"/>
       <c r="DU165" s="4"/>
       <c r="DV165" s="4"/>
+      <c r="DW165" s="4"/>
     </row>
-    <row r="166" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -21451,8 +21633,9 @@
       <c r="DT166" s="4"/>
       <c r="DU166" s="4"/>
       <c r="DV166" s="4"/>
+      <c r="DW166" s="4"/>
     </row>
-    <row r="167" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -21579,8 +21762,9 @@
       <c r="DT167" s="4"/>
       <c r="DU167" s="4"/>
       <c r="DV167" s="4"/>
+      <c r="DW167" s="4"/>
     </row>
-    <row r="168" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -21707,8 +21891,9 @@
       <c r="DT168" s="4"/>
       <c r="DU168" s="4"/>
       <c r="DV168" s="4"/>
+      <c r="DW168" s="4"/>
     </row>
-    <row r="169" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -21835,8 +22020,9 @@
       <c r="DT169" s="4"/>
       <c r="DU169" s="4"/>
       <c r="DV169" s="4"/>
+      <c r="DW169" s="4"/>
     </row>
-    <row r="170" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -21963,8 +22149,9 @@
       <c r="DT170" s="4"/>
       <c r="DU170" s="4"/>
       <c r="DV170" s="4"/>
+      <c r="DW170" s="4"/>
     </row>
-    <row r="171" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -22091,8 +22278,9 @@
       <c r="DT171" s="4"/>
       <c r="DU171" s="4"/>
       <c r="DV171" s="4"/>
+      <c r="DW171" s="4"/>
     </row>
-    <row r="172" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -22219,8 +22407,9 @@
       <c r="DT172" s="4"/>
       <c r="DU172" s="4"/>
       <c r="DV172" s="4"/>
+      <c r="DW172" s="4"/>
     </row>
-    <row r="173" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -22347,8 +22536,9 @@
       <c r="DT173" s="4"/>
       <c r="DU173" s="4"/>
       <c r="DV173" s="4"/>
+      <c r="DW173" s="4"/>
     </row>
-    <row r="174" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -22475,8 +22665,9 @@
       <c r="DT174" s="4"/>
       <c r="DU174" s="4"/>
       <c r="DV174" s="4"/>
+      <c r="DW174" s="4"/>
     </row>
-    <row r="175" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -22603,8 +22794,9 @@
       <c r="DT175" s="4"/>
       <c r="DU175" s="4"/>
       <c r="DV175" s="4"/>
+      <c r="DW175" s="4"/>
     </row>
-    <row r="176" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -22731,8 +22923,9 @@
       <c r="DT176" s="4"/>
       <c r="DU176" s="4"/>
       <c r="DV176" s="4"/>
+      <c r="DW176" s="4"/>
     </row>
-    <row r="177" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -22859,8 +23052,9 @@
       <c r="DT177" s="4"/>
       <c r="DU177" s="4"/>
       <c r="DV177" s="4"/>
+      <c r="DW177" s="4"/>
     </row>
-    <row r="178" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -22987,8 +23181,9 @@
       <c r="DT178" s="4"/>
       <c r="DU178" s="4"/>
       <c r="DV178" s="4"/>
+      <c r="DW178" s="4"/>
     </row>
-    <row r="179" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -23115,8 +23310,9 @@
       <c r="DT179" s="4"/>
       <c r="DU179" s="4"/>
       <c r="DV179" s="4"/>
+      <c r="DW179" s="4"/>
     </row>
-    <row r="180" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -23243,8 +23439,9 @@
       <c r="DT180" s="4"/>
       <c r="DU180" s="4"/>
       <c r="DV180" s="4"/>
+      <c r="DW180" s="4"/>
     </row>
-    <row r="181" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -23371,8 +23568,9 @@
       <c r="DT181" s="4"/>
       <c r="DU181" s="4"/>
       <c r="DV181" s="4"/>
+      <c r="DW181" s="4"/>
     </row>
-    <row r="182" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -23499,8 +23697,9 @@
       <c r="DT182" s="4"/>
       <c r="DU182" s="4"/>
       <c r="DV182" s="4"/>
+      <c r="DW182" s="4"/>
     </row>
-    <row r="183" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -23627,8 +23826,9 @@
       <c r="DT183" s="4"/>
       <c r="DU183" s="4"/>
       <c r="DV183" s="4"/>
+      <c r="DW183" s="4"/>
     </row>
-    <row r="184" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -23755,8 +23955,9 @@
       <c r="DT184" s="4"/>
       <c r="DU184" s="4"/>
       <c r="DV184" s="4"/>
+      <c r="DW184" s="4"/>
     </row>
-    <row r="185" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -23883,8 +24084,9 @@
       <c r="DT185" s="4"/>
       <c r="DU185" s="4"/>
       <c r="DV185" s="4"/>
+      <c r="DW185" s="4"/>
     </row>
-    <row r="186" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -24011,8 +24213,9 @@
       <c r="DT186" s="4"/>
       <c r="DU186" s="4"/>
       <c r="DV186" s="4"/>
+      <c r="DW186" s="4"/>
     </row>
-    <row r="187" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -24139,8 +24342,9 @@
       <c r="DT187" s="4"/>
       <c r="DU187" s="4"/>
       <c r="DV187" s="4"/>
+      <c r="DW187" s="4"/>
     </row>
-    <row r="188" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -24267,8 +24471,9 @@
       <c r="DT188" s="4"/>
       <c r="DU188" s="4"/>
       <c r="DV188" s="4"/>
+      <c r="DW188" s="4"/>
     </row>
-    <row r="189" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -24395,8 +24600,9 @@
       <c r="DT189" s="4"/>
       <c r="DU189" s="4"/>
       <c r="DV189" s="4"/>
+      <c r="DW189" s="4"/>
     </row>
-    <row r="190" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -24523,8 +24729,9 @@
       <c r="DT190" s="4"/>
       <c r="DU190" s="4"/>
       <c r="DV190" s="4"/>
+      <c r="DW190" s="4"/>
     </row>
-    <row r="191" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -24651,8 +24858,9 @@
       <c r="DT191" s="4"/>
       <c r="DU191" s="4"/>
       <c r="DV191" s="4"/>
+      <c r="DW191" s="4"/>
     </row>
-    <row r="192" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -24779,8 +24987,9 @@
       <c r="DT192" s="4"/>
       <c r="DU192" s="4"/>
       <c r="DV192" s="4"/>
+      <c r="DW192" s="4"/>
     </row>
-    <row r="193" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -24907,8 +25116,9 @@
       <c r="DT193" s="4"/>
       <c r="DU193" s="4"/>
       <c r="DV193" s="4"/>
+      <c r="DW193" s="4"/>
     </row>
-    <row r="194" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -25035,8 +25245,9 @@
       <c r="DT194" s="4"/>
       <c r="DU194" s="4"/>
       <c r="DV194" s="4"/>
+      <c r="DW194" s="4"/>
     </row>
-    <row r="195" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -25163,8 +25374,9 @@
       <c r="DT195" s="4"/>
       <c r="DU195" s="4"/>
       <c r="DV195" s="4"/>
+      <c r="DW195" s="4"/>
     </row>
-    <row r="196" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -25291,8 +25503,9 @@
       <c r="DT196" s="4"/>
       <c r="DU196" s="4"/>
       <c r="DV196" s="4"/>
+      <c r="DW196" s="4"/>
     </row>
-    <row r="197" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -25419,8 +25632,9 @@
       <c r="DT197" s="4"/>
       <c r="DU197" s="4"/>
       <c r="DV197" s="4"/>
+      <c r="DW197" s="4"/>
     </row>
-    <row r="198" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -25547,8 +25761,9 @@
       <c r="DT198" s="4"/>
       <c r="DU198" s="4"/>
       <c r="DV198" s="4"/>
+      <c r="DW198" s="4"/>
     </row>
-    <row r="199" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -25675,8 +25890,9 @@
       <c r="DT199" s="4"/>
       <c r="DU199" s="4"/>
       <c r="DV199" s="4"/>
+      <c r="DW199" s="4"/>
     </row>
-    <row r="200" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -25803,8 +26019,9 @@
       <c r="DT200" s="4"/>
       <c r="DU200" s="4"/>
       <c r="DV200" s="4"/>
+      <c r="DW200" s="4"/>
     </row>
-    <row r="201" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -25931,8 +26148,9 @@
       <c r="DT201" s="4"/>
       <c r="DU201" s="4"/>
       <c r="DV201" s="4"/>
+      <c r="DW201" s="4"/>
     </row>
-    <row r="202" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -26059,8 +26277,9 @@
       <c r="DT202" s="4"/>
       <c r="DU202" s="4"/>
       <c r="DV202" s="4"/>
+      <c r="DW202" s="4"/>
     </row>
-    <row r="203" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -26187,8 +26406,9 @@
       <c r="DT203" s="4"/>
       <c r="DU203" s="4"/>
       <c r="DV203" s="4"/>
+      <c r="DW203" s="4"/>
     </row>
-    <row r="204" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -26315,8 +26535,9 @@
       <c r="DT204" s="4"/>
       <c r="DU204" s="4"/>
       <c r="DV204" s="4"/>
+      <c r="DW204" s="4"/>
     </row>
-    <row r="205" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -26443,8 +26664,9 @@
       <c r="DT205" s="4"/>
       <c r="DU205" s="4"/>
       <c r="DV205" s="4"/>
+      <c r="DW205" s="4"/>
     </row>
-    <row r="206" spans="1:126" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:127" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -26571,6 +26793,7 @@
       <c r="DT206" s="4"/>
       <c r="DU206" s="4"/>
       <c r="DV206" s="4"/>
+      <c r="DW206" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
